--- a/examples/javascript/appengine/AppEngineUserAgentLoggerWithXSLXAsset/AppEngineUserAgentLoggerWithXSLXAsset/Design/Book1B.xlsx
+++ b/examples/javascript/appengine/AppEngineUserAgentLoggerWithXSLXAsset/AppEngineUserAgentLoggerWithXSLXAsset/Design/Book1B.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="751" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>ScreenWidth</t>
-  </si>
-  <si>
-    <t>ScreenHeight</t>
+    <t>ScreenWidth as long</t>
+  </si>
+  <si>
+    <t>ScreenHeight as long</t>
   </si>
   <si>
     <t>IPAddress</t>
@@ -157,16 +157,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E3" activeCellId="0" pane="topLeft" sqref="E3"/>
+      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.4470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.121568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.89019607843137"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.1529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.9843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8196078431373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2588235294118"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -226,9 +225,8 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8235294117647"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.89019607843137"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="1">
@@ -275,9 +273,6 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.89019607843137"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
